--- a/code/results/SP/D/signal_reconstruction/ipc.xlsx
+++ b/code/results/SP/D/signal_reconstruction/ipc.xlsx
@@ -383,7 +383,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.167474643422632</v>
+        <v>2.200646710183956</v>
       </c>
     </row>
     <row r="3">
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.796050685491248</v>
+        <v>1.899647725892327</v>
       </c>
     </row>
     <row r="4">
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.384709088797977</v>
+        <v>2.14470360729655</v>
       </c>
     </row>
     <row r="5">
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.094863072742991</v>
+        <v>2.159028324118867</v>
       </c>
     </row>
     <row r="6">
@@ -415,7 +415,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.256563571989726</v>
+        <v>2.252630071968871</v>
       </c>
     </row>
     <row r="7">
@@ -423,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.444284633596501</v>
+        <v>2.395377107891134</v>
       </c>
     </row>
     <row r="8">
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.683790162241421</v>
+        <v>1.851482273000073</v>
       </c>
     </row>
     <row r="9">
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.642299509948103</v>
+        <v>1.667705175046325</v>
       </c>
     </row>
     <row r="10">
@@ -447,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.433860950315139</v>
+        <v>1.536300444763633</v>
       </c>
     </row>
     <row r="11">
@@ -455,7 +455,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.625993272616916</v>
+        <v>1.634870755116458</v>
       </c>
     </row>
     <row r="12">
@@ -463,7 +463,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.64680628416573</v>
+        <v>1.64466776702005</v>
       </c>
     </row>
     <row r="13">
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.436094641724817</v>
+        <v>1.479633613637611</v>
       </c>
     </row>
     <row r="14">
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.11005172042962</v>
+        <v>2.089111198993331</v>
       </c>
     </row>
     <row r="15">
@@ -487,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.616066474149589</v>
+        <v>2.093509442654801</v>
       </c>
     </row>
     <row r="16">
@@ -495,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.637661917012135</v>
+        <v>1.67823990870827</v>
       </c>
     </row>
     <row r="17">
@@ -503,7 +503,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.656532182320164</v>
+        <v>1.66202673862713</v>
       </c>
     </row>
     <row r="18">
@@ -511,7 +511,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.406283037345829</v>
+        <v>1.434280108594511</v>
       </c>
     </row>
     <row r="19">
@@ -519,7 +519,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.936940065057375</v>
+        <v>1.872037813731336</v>
       </c>
     </row>
     <row r="20">
@@ -527,7 +527,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.738413077948817</v>
+        <v>1.789553339874572</v>
       </c>
     </row>
     <row r="21">
@@ -535,7 +535,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.743630743052859</v>
+        <v>1.691487060277771</v>
       </c>
     </row>
     <row r="22">
@@ -543,7 +543,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>2.715244492593577</v>
+        <v>2.601297977942191</v>
       </c>
     </row>
   </sheetData>
